--- a/data/trans_dic/P21D_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_1_R-Habitat-trans_dic.xlsx
@@ -656,7 +656,7 @@
         <v>0.001977025329947544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0009912158385694597</v>
+        <v>0.0009912158385694595</v>
       </c>
     </row>
     <row r="11">
@@ -683,10 +683,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01005063561772366</v>
+        <v>0.01108829044479343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.005062054684870232</v>
+        <v>0.00603972242614683</v>
       </c>
     </row>
     <row r="13">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.001431120717286516</v>
+        <v>0.001431120717286517</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.0007599875054911386</v>
@@ -734,10 +734,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.007206233056397306</v>
+        <v>0.006634121576360515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.004502781497217649</v>
+        <v>0.003793088879737711</v>
       </c>
     </row>
     <row r="16">
@@ -785,10 +785,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="19">
@@ -1066,10 +1066,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>3806</v>
+        <v>4199</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3823</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="16">
@@ -1134,10 +1134,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>3536</v>
+        <v>3256</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4161</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="20">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="24">
